--- a/raw data/API_documents/40_API_documentations/data/filter_labeled_API/Zoom_SDK.xlsx
+++ b/raw data/API_documents/40_API_documentations/data/filter_labeled_API/Zoom_SDK.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="249">
   <si>
     <t>class_name</t>
   </si>
@@ -49,168 +49,69 @@
     <t>uz.zoom.sdk.AnswerItem</t>
   </si>
   <si>
-    <t>uz.zoom.sdk.BOCtrlUserStatus</t>
-  </si>
-  <si>
     <t>uz.zoom.sdk.CameraDevice</t>
   </si>
   <si>
-    <t>uz.zoom.sdk.EnumComponentType</t>
-  </si>
-  <si>
     <t>uz.zoom.sdk.IAnswerItem</t>
   </si>
   <si>
-    <t>uz.zoom.sdk.InMeetingAnnotationController</t>
-  </si>
-  <si>
-    <t>uz.zoom.sdk.InMeetingAnnotationController.AnnotationToolType</t>
-  </si>
-  <si>
-    <t>uz.zoom.sdk.InMeetingAudioController</t>
-  </si>
-  <si>
-    <t>uz.zoom.sdk.InMeetingAudioController.MobileRTCMicrophoneError</t>
-  </si>
-  <si>
     <t>uz.zoom.sdk.InMeetingBOController</t>
   </si>
   <si>
-    <t>uz.zoom.sdk.InMeetingChatController.MobileRTCChatGroup</t>
-  </si>
-  <si>
-    <t>uz.zoom.sdk.InMeetingChatController.MobileRTCMeetingChatPriviledge</t>
-  </si>
-  <si>
-    <t>uz.zoom.sdk.InMeetingChatController.MobileRTCWebinarChatPriviledge</t>
-  </si>
-  <si>
     <t>uz.zoom.sdk.InMeetingChatMessage</t>
   </si>
   <si>
-    <t>uz.zoom.sdk.InMeetingLiveStreamController.MobileRTCLiveStreamStatus</t>
-  </si>
-  <si>
     <t>uz.zoom.sdk.InMeetingQAController</t>
   </si>
   <si>
-    <t>uz.zoom.sdk.InMeetingRemoteController</t>
-  </si>
-  <si>
-    <t>uz.zoom.sdk.InMeetingRemoteController.MobileRTCRemoteControlInputType</t>
-  </si>
-  <si>
     <t>uz.zoom.sdk.InMeetingService</t>
   </si>
   <si>
-    <t>uz.zoom.sdk.InMeetingShareController</t>
-  </si>
-  <si>
     <t>uz.zoom.sdk.InMeetingUserInfo</t>
   </si>
   <si>
-    <t>uz.zoom.sdk.InMeetingUserInfo.InMeetingUserRole</t>
-  </si>
-  <si>
     <t>uz.zoom.sdk.InMeetingVideoController</t>
   </si>
   <si>
     <t>uz.zoom.sdk.InMeetingWaitingRoomController</t>
   </si>
   <si>
-    <t>uz.zoom.sdk.InMeetingWebinarController</t>
-  </si>
-  <si>
     <t>uz.zoom.sdk.InviteRoomSystemHelper</t>
   </si>
   <si>
-    <t>uz.zoom.sdk.InviteRoomSystemHelper.CallOutRoomSystemStatus</t>
-  </si>
-  <si>
-    <t>uz.zoom.sdk.InviteRoomSystemHelper.PairingRoomSystemResult</t>
-  </si>
-  <si>
     <t>uz.zoom.sdk.IQAItemInfo</t>
   </si>
   <si>
-    <t>uz.zoom.sdk.IZoomSDKAudioRawDataHelper</t>
-  </si>
-  <si>
-    <t>uz.zoom.sdk.IZoomSDKRenderer</t>
-  </si>
-  <si>
-    <t>uz.zoom.sdk.IZoomSDKVideoRawDataDelegate.UserRawDataStatus</t>
-  </si>
-  <si>
     <t>uz.zoom.sdk.MeetingActivity</t>
   </si>
   <si>
     <t>uz.zoom.sdk.MeetingItem</t>
   </si>
   <si>
-    <t>uz.zoom.sdk.MeetingItem.AudioType</t>
-  </si>
-  <si>
-    <t>uz.zoom.sdk.MeetingItem.AutoRecordType</t>
-  </si>
-  <si>
     <t>uz.zoom.sdk.MeetingService</t>
   </si>
   <si>
-    <t>uz.zoom.sdk.MeetingStatus</t>
-  </si>
-  <si>
-    <t>uz.zoom.sdk.MobileRTCRawDataError</t>
-  </si>
-  <si>
-    <t>uz.zoom.sdk.MobileRTCSDKError</t>
-  </si>
-  <si>
-    <t>uz.zoom.sdk.MobileRTCSMSVerificationError</t>
-  </si>
-  <si>
     <t>uz.zoom.sdk.MobileRTCVideoView</t>
   </si>
   <si>
     <t>uz.zoom.sdk.PreMeetingService</t>
   </si>
   <si>
-    <t>uz.zoom.sdk.PreMeetingService.ScheduleOrEditMeetingError</t>
-  </si>
-  <si>
     <t>uz.zoom.sdk.QAItemInfo</t>
   </si>
   <si>
     <t>uz.zoom.sdk.RoomSystemDevice</t>
   </si>
   <si>
-    <t>uz.zoom.sdk.ZoomAppLocal</t>
-  </si>
-  <si>
     <t>uz.zoom.sdk.ZoomSDK</t>
   </si>
   <si>
     <t>uz.zoom.sdk.ZoomSDKAudioRawData</t>
   </si>
   <si>
-    <t>uz.zoom.sdk.ZoomSDKAudioRawDataHelper</t>
-  </si>
-  <si>
-    <t>uz.zoom.sdk.ZoomSDKRawDataMemoryMode</t>
-  </si>
-  <si>
-    <t>uz.zoom.sdk.ZoomSDKRawDataType</t>
-  </si>
-  <si>
-    <t>uz.zoom.sdk.ZoomSDKRenderer</t>
-  </si>
-  <si>
     <t>uz.zoom.sdk.ZoomSDKVideoRawData</t>
   </si>
   <si>
-    <t>uz.zoom.sdk.ZoomSDKVideoResolution</t>
-  </si>
-  <si>
     <t>Account Information Service for current logged-in User.</t>
   </si>
   <si>
@@ -220,98 +121,37 @@
     <t>Camera device class.</t>
   </si>
   <si>
-    <t>Component types.</t>
-  </si>
-  <si>
-    <t>Annotation controls in meeting.</t>
-  </si>
-  <si>
-    <t>Annotation tool types in meeting.</t>
-  </si>
-  <si>
-    <t>Audio controller in meeting.</t>
-  </si>
-  <si>
-    <t>Enumeration of Microphone Errors.</t>
-  </si>
-  <si>
-    <t>Chat group in meeting.</t>
-  </si>
-  <si>
-    <t>An enumeration of meeting chat priviledge types</t>
-  </si>
-  <si>
-    <t>An enumeration of webinar chat priviledge types</t>
-  </si>
-  <si>
     <t>Chat message in zoom meeting.</t>
   </si>
   <si>
-    <t>Enumeration of live stream status in meeting.</t>
-  </si>
-  <si>
     <t>Question and answer(QA) controller in webinar.</t>
   </si>
   <si>
-    <t>Remote controller interface in meeting.</t>
-  </si>
-  <si>
-    <t>Type of operations when the user is in remote controlling.</t>
-  </si>
-  <si>
     <t>Interfaces of ZOOM services in meeting.</t>
   </si>
   <si>
-    <t>Share controller in meeting.</t>
-  </si>
-  <si>
     <t>User Information Object in ZOOM meeting.</t>
   </si>
   <si>
-    <t>An enumeration of user roles.
- Here are more detailed structural descriptions.</t>
-  </si>
-  <si>
     <t>Video controller in meeting.</t>
   </si>
   <si>
     <t>Waiting Room of Meeting Service Interface</t>
   </si>
   <si>
-    <t>Webinar controller in meeting.</t>
-  </si>
-  <si>
     <t>Invitation room system helper.</t>
   </si>
   <si>
-    <t>Room system outgoing call status.</t>
-  </si>
-  <si>
-    <t>Room system pairing status.</t>
-  </si>
-  <si>
     <t>Meeting item interface.</t>
   </si>
   <si>
-    <t>Audio types when participants join the meeting..</t>
-  </si>
-  <si>
-    <t>Meeting auto-recording types.</t>
-  </si>
-  <si>
     <t>ZOOM meeting service.</t>
   </si>
   <si>
-    <t>Meeting status.</t>
-  </si>
-  <si>
     <t>Meeting video view class.</t>
   </si>
   <si>
     <t>ZOOM pre-meeting service.</t>
-  </si>
-  <si>
-    <t>Enumeration of error types when scheduling or editing a meeting.</t>
   </si>
   <si>
     <t>Meeting room device class.</t>
@@ -324,22 +164,10 @@
  IZoomSDKAudioRawDataDelegate.onMixedAudioRawDataReceived(ZoomSDKAudioRawData)</t>
   </si>
   <si>
-    <t>RawData Memory Mode
- ZoomSDKRawDataMemoryModeStack : ByteBuffer release on stack over
- ZoomSDKRawDataMemoryModeHeap : ByteBuffer release by reference release</t>
-  </si>
-  <si>
-    <t>Zoom SDK  video raw data render.</t>
-  </si>
-  <si>
     <t>Zoom SDK Video raw data bean.
  IZoomSDKVideoRawDataDelegate.onVideoRawDataFrame(ZoomSDKVideoRawData)</t>
   </si>
   <si>
-    <t>Zoom SDK video resolution.
- ZoomSDKRenderer.setRawDataResolution(ZoomSDKVideoResolution)</t>
-  </si>
-  <si>
     <t>getAccountEmail()</t>
   </si>
   <si>
@@ -373,9 +201,6 @@
     <t>getText()</t>
   </si>
   <si>
-    <t>valueOf(java.lang.String name)</t>
-  </si>
-  <si>
     <t>getCameraType()</t>
   </si>
   <si>
@@ -385,15 +210,6 @@
     <t>getDeviceName()</t>
   </si>
   <si>
-    <t>setToolColor(int color)</t>
-  </si>
-  <si>
-    <t>setToolType(InMeetingAnnotationController.AnnotationToolType toolType)</t>
-  </si>
-  <si>
-    <t>disconnectAudio()</t>
-  </si>
-  <si>
     <t>getBODataHelper()</t>
   </si>
   <si>
@@ -421,16 +237,6 @@
     <t>getQuestion(java.lang.String questionId)</t>
   </si>
   <si>
-    <t>remoteControlKeyInput(InMeetingRemoteController.MobileRTCRemoteControlInputType keyType)</t>
-  </si>
-  <si>
-    <t>remoteControlSingleMove(float x,
-                       float y)</t>
-  </si>
-  <si>
-    <t>activeShareUserID()</t>
-  </si>
-  <si>
     <t>getCurrentMeetingID()</t>
   </si>
   <si>
@@ -452,18 +258,6 @@
     <t>getUserInfoById(long userId)</t>
   </si>
   <si>
-    <t>lowerHand(long userId)</t>
-  </si>
-  <si>
-    <t>startShareViewContent(MobileRTCShareView shareView)</t>
-  </si>
-  <si>
-    <t>startShareViewSession()</t>
-  </si>
-  <si>
-    <t>stopShareView()</t>
-  </si>
-  <si>
     <t>getEmail()</t>
   </si>
   <si>
@@ -473,12 +267,6 @@
     <t>getUserName()</t>
   </si>
   <si>
-    <t>activeVideoUserID()</t>
-  </si>
-  <si>
-    <t>askAttendeeStartVideo(long userId)</t>
-  </si>
-  <si>
     <t>getCameraDeviceList()</t>
   </si>
   <si>
@@ -488,29 +276,9 @@
     <t>getSelectedCameraId()</t>
   </si>
   <si>
-    <t>muteMyVideo(boolean mute)</t>
-  </si>
-  <si>
-    <t>pinVideo(boolean on,
-        long userId)</t>
-  </si>
-  <si>
-    <t>spotLightVideo(boolean on,
-              long userId)</t>
-  </si>
-  <si>
-    <t>stopAttendeeVideo(long userId)</t>
-  </si>
-  <si>
     <t>getWaitingRoomUserInfoByID(long userId)</t>
   </si>
   <si>
-    <t>allowPanelistStartVideo()</t>
-  </si>
-  <si>
-    <t>disallowPanelistStartVideo()</t>
-  </si>
-  <si>
     <t>getRoomDevices()</t>
   </si>
   <si>
@@ -520,16 +288,6 @@
     <t>getLiveAnswerName()</t>
   </si>
   <si>
-    <t>subscribe(IZoomSDKAudioRawDataDelegate delegate)</t>
-  </si>
-  <si>
-    <t>unSubscribe()</t>
-  </si>
-  <si>
-    <t>subscribe(long userId,
-         ZoomSDKRawDataType type)</t>
-  </si>
-  <si>
     <t>getLayout()</t>
   </si>
   <si>
@@ -584,16 +342,6 @@
     <t>getAccountService()</t>
   </si>
   <si>
-    <t>loginWithSSOToken(java.lang.String ssoToken)</t>
-  </si>
-  <si>
-    <t>loginWithZoom(java.lang.String email,
-             java.lang.String password)</t>
-  </si>
-  <si>
-    <t>tryAutoLoginZoom()</t>
-  </si>
-  <si>
     <t>getBufferLen()</t>
   </si>
   <si>
@@ -636,9 +384,6 @@
     <t>Get answer content</t>
   </si>
   <si>
-    <t>Returns the enum constant of this type with the specified name.</t>
-  </si>
-  <si>
     <t>Get camera type.</t>
   </si>
   <si>
@@ -646,15 +391,6 @@
   </si>
   <si>
     <t>Get the camera name.</t>
-  </si>
-  <si>
-    <t>Set the colors of annotation tools.</t>
-  </si>
-  <si>
-    <t>Set the types of annotation tools.</t>
-  </si>
-  <si>
-    <t>Disconnect the audio.</t>
   </si>
   <si>
     <t>Get IBOData
@@ -686,15 +422,6 @@
     <t>Get question by question id</t>
   </si>
   <si>
-    <t>Simulate an Enter key or Delete key on the keyboard.</t>
-  </si>
-  <si>
-    <t>Move remote cursor by dragging mouse icon on phone.</t>
-  </si>
-  <si>
-    <t>Get the ID of active presenter in meeting.</t>
-  </si>
-  <si>
     <t>Get unique ID of current meeting in format such as DVLObefSZizM0xQLhtrCQ==.</t>
   </si>
   <si>
@@ -716,18 +443,6 @@
     <t>Get the information of the specified user.</t>
   </si>
   <si>
-    <t>The current user puts hands down.</t>
-  </si>
-  <si>
-    <t>Sharing the content saved in MobileRTCShareView.</t>
-  </si>
-  <si>
-    <t>Start sharing the content saved in MobileRTCShareView.</t>
-  </si>
-  <si>
-    <t>Stop sharing the content in MobileRTCShareView.</t>
-  </si>
-  <si>
     <t>Get working email of user account.</t>
   </si>
   <si>
@@ -737,12 +452,6 @@
     <t>Get user name.</t>
   </si>
   <si>
-    <t>Get the ID of user whose video is active in the meeting.</t>
-  </si>
-  <si>
-    <t>Host can use the function to ask the user to start video.</t>
-  </si>
-  <si>
     <t>Get the list of all camera devices.</t>
   </si>
   <si>
@@ -752,27 +461,9 @@
     <t>Get the ID of currently selected camera.</t>
   </si>
   <si>
-    <t>Set to mute/unmute the video.</t>
-  </si>
-  <si>
-    <t>Set whether to pin user's video or not, which means that during a video conference, the monitor will always display the specified user's view instead of active speaker's video.</t>
-  </si>
-  <si>
-    <t>Set whether to spotlight user's video or not.</t>
-  </si>
-  <si>
-    <t>Host can use the function to mute user's video.</t>
-  </si>
-  <si>
     <t>Get the information of user who is in the waiting room by user ID.</t>
   </si>
   <si>
-    <t>Allow panelist to start video.</t>
-  </si>
-  <si>
-    <t>Disallow panelist to start video.</t>
-  </si>
-  <si>
     <t>Get the list of devices in current meeting room.</t>
   </si>
   <si>
@@ -788,15 +479,6 @@
     <t>Get question content</t>
   </si>
   <si>
-    <t>subscribe audio raw data.</t>
-  </si>
-  <si>
-    <t>unsubscribe audio raw data</t>
-  </si>
-  <si>
-    <t>Subscribe user video by userId,rawDataType</t>
-  </si>
-  <si>
     <t>Get the layout ID of meeting activities.</t>
   </si>
   <si>
@@ -848,21 +530,9 @@
     <t>Get account service instance.</t>
   </si>
   <si>
-    <t>Login ZOOM SDK with SSO token.</t>
-  </si>
-  <si>
-    <t>Login ZOOM SDK with working email.</t>
-  </si>
-  <si>
-    <t>Login ZOOM SDK automatically with local ZOOM/SSO token once you have logged in successfully.</t>
-  </si>
-  <si>
     <t>Get buffer data length</t>
   </si>
   <si>
-    <t>unSubscribe raw data.</t>
-  </si>
-  <si>
     <t>Query video raw data format</t>
   </si>
   <si>
@@ -881,123 +551,45 @@
     <t>java.util.List&lt;java.lang.String&gt;</t>
   </si>
   <si>
-    <t>static BOCtrlUserStatus</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
-    <t>static EnumComponentType</t>
-  </si>
-  <si>
-    <t>MobileRTCSDKError</t>
-  </si>
-  <si>
-    <t>static InMeetingAnnotationController.AnnotationToolType</t>
-  </si>
-  <si>
-    <t>static InMeetingAudioController.MobileRTCMicrophoneError</t>
-  </si>
-  <si>
     <t>IBOData</t>
   </si>
   <si>
-    <t>static InMeetingChatController.MobileRTCChatGroup</t>
-  </si>
-  <si>
-    <t>static InMeetingChatController.MobileRTCMeetingChatPriviledge</t>
-  </si>
-  <si>
-    <t>static InMeetingChatController.MobileRTCWebinarChatPriviledge</t>
-  </si>
-  <si>
     <t>long</t>
   </si>
   <si>
-    <t>static InMeetingLiveStreamController.MobileRTCLiveStreamStatus</t>
-  </si>
-  <si>
     <t>IAnswerItem</t>
   </si>
   <si>
     <t>IQAItemInfo</t>
   </si>
   <si>
-    <t>static InMeetingRemoteController.MobileRTCRemoteControlInputType</t>
-  </si>
-  <si>
     <t>InMeetingUserInfo</t>
   </si>
   <si>
-    <t>static InMeetingUserInfo.InMeetingUserRole</t>
-  </si>
-  <si>
     <t>java.util.List&lt;CameraDevice&gt;</t>
   </si>
   <si>
     <t>java.util.List&lt;RoomSystemDevice&gt;</t>
   </si>
   <si>
-    <t>static InviteRoomSystemHelper.CallOutRoomSystemStatus</t>
-  </si>
-  <si>
-    <t>static InviteRoomSystemHelper.PairingRoomSystemResult</t>
-  </si>
-  <si>
     <t>java.util.List&lt;IAnswerItem&gt;</t>
   </si>
   <si>
-    <t>MobileRTCRawDataError</t>
-  </si>
-  <si>
-    <t>static IZoomSDKVideoRawDataDelegate.UserRawDataStatus</t>
-  </si>
-  <si>
     <t>protected int</t>
   </si>
   <si>
-    <t>static MeetingItem.AudioType</t>
-  </si>
-  <si>
-    <t>static MeetingItem.AutoRecordType</t>
-  </si>
-  <si>
-    <t>static MeetingStatus</t>
-  </si>
-  <si>
-    <t>static MobileRTCRawDataError</t>
-  </si>
-  <si>
-    <t>static MobileRTCSDKError</t>
-  </si>
-  <si>
-    <t>static MobileRTCSMSVerificationError</t>
-  </si>
-  <si>
     <t>MobileRTCVideoViewManager</t>
   </si>
   <si>
     <t>MeetingItem</t>
   </si>
   <si>
-    <t>static PreMeetingService.ScheduleOrEditMeetingError</t>
-  </si>
-  <si>
-    <t>static ZoomAppLocal</t>
-  </si>
-  <si>
     <t>AccountService</t>
   </si>
   <si>
-    <t>static ZoomSDKRawDataMemoryMode</t>
-  </si>
-  <si>
-    <t>static ZoomSDKRawDataType</t>
-  </si>
-  <si>
-    <t>static ZoomSDKVideoResolution</t>
-  </si>
-  <si>
     <t>Get IBOData when host in master conf/bo conf, you will get this object when co host in bo conf, you will get this object</t>
   </si>
   <si>
@@ -1007,27 +599,12 @@
     <t>Get unique ID of current meeting in format such as dvlobef sziz m0x qlhtr cq==.</t>
   </si>
   <si>
-    <t>Sharing the content saved in mobile rtcshare view.</t>
-  </si>
-  <si>
-    <t>Start sharing the content saved in mobile rtcshare view.</t>
-  </si>
-  <si>
-    <t>Stop sharing the content in mobile rtcshare view.</t>
-  </si>
-  <si>
     <t>Get the answer information list</t>
   </si>
   <si>
-    <t>Subscribe user video by user id,raw data type</t>
-  </si>
-  <si>
     <t>Get the unique ID of current meeting, in format like dvlobef sziz m0x qlhtr cq==</t>
   </si>
   <si>
-    <t>un subscribe raw data.</t>
-  </si>
-  <si>
     <t>Query video raw data rotation</t>
   </si>
   <si>
@@ -1064,9 +641,6 @@
     <t>{'answer content'}</t>
   </si>
   <si>
-    <t>{'the specified name'}</t>
-  </si>
-  <si>
     <t>{'camera type'}</t>
   </si>
   <si>
@@ -1076,12 +650,6 @@
     <t>{'the camera name'}</t>
   </si>
   <si>
-    <t>{'annotation tools'}</t>
-  </si>
-  <si>
-    <t>{'the audio'}</t>
-  </si>
-  <si>
     <t>{'IBOData', 'Get'}</t>
   </si>
   <si>
@@ -1097,12 +665,6 @@
     <t>{'ID'}</t>
   </si>
   <si>
-    <t>{'the keyboard'}</t>
-  </si>
-  <si>
-    <t>{'phone'}</t>
-  </si>
-  <si>
     <t>{'content'}</t>
   </si>
   <si>
@@ -1115,12 +677,6 @@
     <t>{'id.'}</t>
   </si>
   <si>
-    <t>{'The current user', 'puts'}</t>
-  </si>
-  <si>
-    <t>{'the content'}</t>
-  </si>
-  <si>
     <t>{'user account', 'working email'}</t>
   </si>
   <si>
@@ -1130,12 +686,6 @@
     <t>{'user name'}</t>
   </si>
   <si>
-    <t>{'whose video'}</t>
-  </si>
-  <si>
-    <t>{'video'}</t>
-  </si>
-  <si>
     <t>{'all camera devices'}</t>
   </si>
   <si>
@@ -1145,15 +695,6 @@
     <t>{'currently selected camera'}</t>
   </si>
   <si>
-    <t>{'the video'}</t>
-  </si>
-  <si>
-    <t>{"active speaker's video", 'a video conference', "user's video"}</t>
-  </si>
-  <si>
-    <t>{"user's video"}</t>
-  </si>
-  <si>
     <t>{'user', 'user ID', 'the information'}</t>
   </si>
   <si>
@@ -1172,15 +713,6 @@
     <t>{'question content'}</t>
   </si>
   <si>
-    <t>{'audio raw data'}</t>
-  </si>
-  <si>
-    <t>{'unsubscribe audio raw data'}</t>
-  </si>
-  <si>
-    <t>{'user id', 'raw data type', 'Subscribe user video'}</t>
-  </si>
-  <si>
     <t>{'the invitation content', 'email'}</t>
   </si>
   <si>
@@ -1226,19 +758,7 @@
     <t>{'account service instance', 'Get'}</t>
   </si>
   <si>
-    <t>{'token', 'SSO'}</t>
-  </si>
-  <si>
-    <t>{'working email'}</t>
-  </si>
-  <si>
-    <t>{'token'}</t>
-  </si>
-  <si>
     <t>{'buffer data length'}</t>
-  </si>
-  <si>
-    <t>{'raw data'}</t>
   </si>
   <si>
     <t>{'Query video raw data format'}</t>
@@ -1602,7 +1122,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H125"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1639,25 +1159,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>192</v>
+        <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>280</v>
+        <v>173</v>
       </c>
       <c r="F2" t="s">
-        <v>192</v>
+        <v>111</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>334</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1665,25 +1185,25 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>193</v>
+        <v>112</v>
       </c>
       <c r="E3" t="s">
-        <v>280</v>
+        <v>173</v>
       </c>
       <c r="F3" t="s">
-        <v>193</v>
+        <v>112</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>335</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1691,25 +1211,25 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>194</v>
+        <v>113</v>
       </c>
       <c r="E4" t="s">
-        <v>281</v>
+        <v>174</v>
       </c>
       <c r="F4" t="s">
-        <v>194</v>
+        <v>113</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>336</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1717,25 +1237,25 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>195</v>
+        <v>114</v>
       </c>
       <c r="E5" t="s">
-        <v>282</v>
+        <v>175</v>
       </c>
       <c r="F5" t="s">
-        <v>195</v>
+        <v>114</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>337</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1743,25 +1263,25 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>196</v>
+        <v>115</v>
       </c>
       <c r="E6" t="s">
-        <v>283</v>
+        <v>176</v>
       </c>
       <c r="F6" t="s">
-        <v>196</v>
+        <v>115</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>338</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1769,25 +1289,25 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>197</v>
+        <v>116</v>
       </c>
       <c r="E7" t="s">
-        <v>280</v>
+        <v>173</v>
       </c>
       <c r="F7" t="s">
-        <v>197</v>
+        <v>116</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>339</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1795,25 +1315,25 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>198</v>
+        <v>117</v>
       </c>
       <c r="E8" t="s">
-        <v>280</v>
+        <v>173</v>
       </c>
       <c r="F8" t="s">
-        <v>198</v>
+        <v>117</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>340</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1821,25 +1341,25 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>199</v>
+        <v>118</v>
       </c>
       <c r="E9" t="s">
-        <v>280</v>
+        <v>173</v>
       </c>
       <c r="F9" t="s">
-        <v>199</v>
+        <v>118</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>341</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1847,22 +1367,22 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="E10" t="s">
-        <v>280</v>
+        <v>173</v>
       </c>
       <c r="F10" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>342</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1870,22 +1390,22 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>201</v>
+        <v>120</v>
       </c>
       <c r="E11" t="s">
-        <v>280</v>
+        <v>173</v>
       </c>
       <c r="F11" t="s">
-        <v>201</v>
+        <v>120</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>343</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1893,2879 +1413,1563 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>202</v>
+        <v>121</v>
       </c>
       <c r="E12" t="s">
-        <v>280</v>
+        <v>173</v>
       </c>
       <c r="F12" t="s">
-        <v>202</v>
+        <v>121</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>344</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>11</v>
       </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
       <c r="C13" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>203</v>
+        <v>122</v>
       </c>
       <c r="E13" t="s">
-        <v>284</v>
+        <v>177</v>
       </c>
       <c r="F13" t="s">
-        <v>203</v>
+        <v>122</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>345</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>204</v>
+        <v>123</v>
       </c>
       <c r="E14" t="s">
-        <v>285</v>
+        <v>173</v>
       </c>
       <c r="F14" t="s">
-        <v>204</v>
+        <v>123</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>346</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="D15" t="s">
-        <v>205</v>
+        <v>124</v>
       </c>
       <c r="E15" t="s">
-        <v>280</v>
+        <v>173</v>
       </c>
       <c r="F15" t="s">
-        <v>205</v>
+        <v>124</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>347</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>12</v>
       </c>
-      <c r="B16" t="s">
-        <v>67</v>
-      </c>
       <c r="C16" t="s">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="D16" t="s">
-        <v>206</v>
+        <v>119</v>
       </c>
       <c r="E16" t="s">
-        <v>280</v>
+        <v>173</v>
       </c>
       <c r="F16" t="s">
-        <v>206</v>
+        <v>119</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>348</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>203</v>
+        <v>120</v>
       </c>
       <c r="E17" t="s">
-        <v>286</v>
+        <v>173</v>
       </c>
       <c r="F17" t="s">
-        <v>203</v>
+        <v>120</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>345</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>200</v>
+        <v>121</v>
       </c>
       <c r="E18" t="s">
-        <v>280</v>
+        <v>173</v>
       </c>
       <c r="F18" t="s">
-        <v>200</v>
+        <v>121</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>342</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="D19" t="s">
-        <v>201</v>
+        <v>125</v>
       </c>
       <c r="E19" t="s">
-        <v>280</v>
+        <v>178</v>
       </c>
       <c r="F19" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>343</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>14</v>
       </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
       <c r="C20" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>202</v>
+        <v>126</v>
       </c>
       <c r="E20" t="s">
-        <v>280</v>
+        <v>173</v>
       </c>
       <c r="F20" t="s">
-        <v>202</v>
+        <v>126</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>344</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="D21" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="E21" t="s">
-        <v>287</v>
+        <v>173</v>
       </c>
       <c r="F21" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>349</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="D22" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="E22" t="s">
-        <v>287</v>
+        <v>173</v>
       </c>
       <c r="F22" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>349</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="D23" t="s">
-        <v>203</v>
+        <v>129</v>
       </c>
       <c r="E23" t="s">
-        <v>288</v>
+        <v>179</v>
       </c>
       <c r="F23" t="s">
-        <v>203</v>
+        <v>129</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>345</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>123</v>
+        <v>69</v>
       </c>
       <c r="D24" t="s">
-        <v>209</v>
+        <v>130</v>
       </c>
       <c r="E24" t="s">
-        <v>287</v>
+        <v>173</v>
       </c>
       <c r="F24" t="s">
-        <v>209</v>
+        <v>130</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>350</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s">
-        <v>203</v>
+        <v>131</v>
       </c>
       <c r="E25" t="s">
-        <v>289</v>
+        <v>179</v>
       </c>
       <c r="F25" t="s">
-        <v>203</v>
+        <v>131</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>345</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="D26" t="s">
-        <v>210</v>
+        <v>132</v>
       </c>
       <c r="E26" t="s">
-        <v>290</v>
+        <v>180</v>
       </c>
       <c r="F26" t="s">
-        <v>323</v>
+        <v>191</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>351</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="D27" t="s">
-        <v>203</v>
+        <v>133</v>
       </c>
       <c r="E27" t="s">
-        <v>291</v>
+        <v>181</v>
       </c>
       <c r="F27" t="s">
-        <v>203</v>
+        <v>133</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>345</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="D28" t="s">
-        <v>203</v>
+        <v>134</v>
       </c>
       <c r="E28" t="s">
-        <v>292</v>
+        <v>173</v>
       </c>
       <c r="F28" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>345</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="D29" t="s">
-        <v>203</v>
+        <v>135</v>
       </c>
       <c r="E29" t="s">
-        <v>293</v>
+        <v>173</v>
       </c>
       <c r="F29" t="s">
-        <v>203</v>
+        <v>135</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>345</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="D30" t="s">
-        <v>211</v>
+        <v>136</v>
       </c>
       <c r="E30" t="s">
-        <v>280</v>
+        <v>173</v>
       </c>
       <c r="F30" t="s">
-        <v>211</v>
+        <v>136</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>352</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" t="s">
         <v>76</v>
       </c>
-      <c r="C31" t="s">
-        <v>126</v>
-      </c>
       <c r="D31" t="s">
-        <v>212</v>
+        <v>137</v>
       </c>
       <c r="E31" t="s">
-        <v>280</v>
+        <v>179</v>
       </c>
       <c r="F31" t="s">
-        <v>212</v>
+        <v>137</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>353</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="D32" t="s">
-        <v>213</v>
+        <v>138</v>
       </c>
       <c r="E32" t="s">
-        <v>280</v>
+        <v>182</v>
       </c>
       <c r="F32" t="s">
-        <v>213</v>
+        <v>138</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>354</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="D33" t="s">
-        <v>214</v>
+        <v>139</v>
       </c>
       <c r="E33" t="s">
-        <v>294</v>
+        <v>179</v>
       </c>
       <c r="F33" t="s">
-        <v>214</v>
+        <v>139</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>355</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="D34" t="s">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="E34" t="s">
-        <v>280</v>
+        <v>182</v>
       </c>
       <c r="F34" t="s">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>354</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="D35" t="s">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="E35" t="s">
-        <v>294</v>
+        <v>173</v>
       </c>
       <c r="F35" t="s">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>355</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="D36" t="s">
-        <v>203</v>
+        <v>142</v>
       </c>
       <c r="E36" t="s">
-        <v>295</v>
+        <v>179</v>
       </c>
       <c r="F36" t="s">
-        <v>203</v>
+        <v>142</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>345</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="D37" t="s">
-        <v>217</v>
+        <v>143</v>
       </c>
       <c r="E37" t="s">
-        <v>296</v>
+        <v>173</v>
       </c>
       <c r="F37" t="s">
-        <v>324</v>
+        <v>143</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>342</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>132</v>
+        <v>83</v>
       </c>
       <c r="D38" t="s">
-        <v>218</v>
+        <v>144</v>
       </c>
       <c r="E38" t="s">
-        <v>297</v>
+        <v>183</v>
       </c>
       <c r="F38" t="s">
-        <v>218</v>
+        <v>144</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>342</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="D39" t="s">
-        <v>219</v>
+        <v>145</v>
       </c>
       <c r="E39" t="s">
-        <v>287</v>
+        <v>179</v>
       </c>
       <c r="F39" t="s">
-        <v>219</v>
+        <v>145</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>356</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="D40" t="s">
-        <v>220</v>
+        <v>146</v>
       </c>
       <c r="E40" t="s">
-        <v>287</v>
+        <v>173</v>
       </c>
       <c r="F40" t="s">
-        <v>220</v>
+        <v>146</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>357</v>
+        <v>224</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="D41" t="s">
-        <v>203</v>
+        <v>147</v>
       </c>
       <c r="E41" t="s">
-        <v>298</v>
+        <v>182</v>
       </c>
       <c r="F41" t="s">
-        <v>203</v>
+        <v>147</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>345</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="D42" t="s">
-        <v>221</v>
+        <v>148</v>
       </c>
       <c r="E42" t="s">
-        <v>294</v>
+        <v>184</v>
       </c>
       <c r="F42" t="s">
-        <v>221</v>
+        <v>148</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>355</v>
+        <v>226</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>28</v>
-      </c>
-      <c r="B43" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="C43" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="D43" t="s">
-        <v>222</v>
+        <v>149</v>
       </c>
       <c r="E43" t="s">
-        <v>280</v>
+        <v>185</v>
       </c>
       <c r="F43" t="s">
-        <v>325</v>
+        <v>193</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>355</v>
+        <v>227</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>28</v>
-      </c>
-      <c r="B44" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="C44" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="D44" t="s">
-        <v>223</v>
+        <v>150</v>
       </c>
       <c r="E44" t="s">
-        <v>280</v>
+        <v>173</v>
       </c>
       <c r="F44" t="s">
-        <v>223</v>
+        <v>150</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>358</v>
+        <v>228</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>28</v>
-      </c>
-      <c r="B45" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="C45" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="D45" t="s">
-        <v>224</v>
+        <v>119</v>
       </c>
       <c r="E45" t="s">
-        <v>280</v>
+        <v>173</v>
       </c>
       <c r="F45" t="s">
-        <v>224</v>
+        <v>119</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>359</v>
+        <v>204</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>28</v>
-      </c>
-      <c r="B46" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="C46" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="D46" t="s">
-        <v>225</v>
+        <v>151</v>
       </c>
       <c r="E46" t="s">
-        <v>294</v>
+        <v>173</v>
       </c>
       <c r="F46" t="s">
-        <v>225</v>
+        <v>151</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>360</v>
+        <v>229</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>28</v>
-      </c>
-      <c r="B47" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="C47" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D47" t="s">
-        <v>226</v>
+        <v>152</v>
       </c>
       <c r="E47" t="s">
-        <v>299</v>
+        <v>173</v>
       </c>
       <c r="F47" t="s">
-        <v>226</v>
+        <v>152</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>336</v>
+        <v>230</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>28</v>
-      </c>
-      <c r="B48" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="C48" t="s">
-        <v>141</v>
+        <v>90</v>
       </c>
       <c r="D48" t="s">
-        <v>227</v>
+        <v>153</v>
       </c>
       <c r="E48" t="s">
-        <v>294</v>
+        <v>186</v>
       </c>
       <c r="F48" t="s">
-        <v>227</v>
+        <v>153</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>361</v>
+        <v>214</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B49" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="C49" t="s">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="D49" t="s">
-        <v>228</v>
+        <v>154</v>
       </c>
       <c r="E49" t="s">
-        <v>299</v>
+        <v>173</v>
       </c>
       <c r="F49" t="s">
-        <v>228</v>
+        <v>154</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>336</v>
+        <v>231</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B50" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="C50" t="s">
-        <v>143</v>
+        <v>92</v>
       </c>
       <c r="D50" t="s">
-        <v>229</v>
+        <v>155</v>
       </c>
       <c r="E50" t="s">
-        <v>287</v>
+        <v>173</v>
       </c>
       <c r="F50" t="s">
-        <v>229</v>
+        <v>155</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>362</v>
+        <v>232</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B51" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="C51" t="s">
-        <v>144</v>
+        <v>93</v>
       </c>
       <c r="D51" t="s">
-        <v>230</v>
+        <v>156</v>
       </c>
       <c r="E51" t="s">
-        <v>287</v>
+        <v>179</v>
       </c>
       <c r="F51" t="s">
-        <v>326</v>
+        <v>156</v>
       </c>
       <c r="G51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>363</v>
+        <v>233</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B52" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="C52" t="s">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="D52" t="s">
-        <v>231</v>
+        <v>157</v>
       </c>
       <c r="E52" t="s">
-        <v>287</v>
+        <v>173</v>
       </c>
       <c r="F52" t="s">
-        <v>327</v>
+        <v>157</v>
       </c>
       <c r="G52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>363</v>
+        <v>234</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B53" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="C53" t="s">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="D53" t="s">
-        <v>232</v>
+        <v>158</v>
       </c>
       <c r="E53" t="s">
-        <v>287</v>
+        <v>173</v>
       </c>
       <c r="F53" t="s">
-        <v>328</v>
+        <v>158</v>
       </c>
       <c r="G53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>363</v>
+        <v>235</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B54" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="C54" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="D54" t="s">
-        <v>233</v>
+        <v>159</v>
       </c>
       <c r="E54" t="s">
-        <v>280</v>
+        <v>173</v>
       </c>
       <c r="F54" t="s">
-        <v>233</v>
+        <v>159</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>364</v>
+        <v>236</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B55" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="C55" t="s">
-        <v>148</v>
+        <v>97</v>
       </c>
       <c r="D55" t="s">
-        <v>234</v>
+        <v>160</v>
       </c>
       <c r="E55" t="s">
-        <v>294</v>
+        <v>173</v>
       </c>
       <c r="F55" t="s">
-        <v>234</v>
+        <v>160</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>365</v>
+        <v>237</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B56" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="C56" t="s">
-        <v>149</v>
+        <v>98</v>
       </c>
       <c r="D56" t="s">
-        <v>235</v>
+        <v>161</v>
       </c>
       <c r="E56" t="s">
-        <v>280</v>
+        <v>173</v>
       </c>
       <c r="F56" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="G56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>366</v>
+        <v>238</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B57" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="C57" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="D57" t="s">
-        <v>203</v>
+        <v>162</v>
       </c>
       <c r="E57" t="s">
-        <v>300</v>
+        <v>179</v>
       </c>
       <c r="F57" t="s">
-        <v>203</v>
+        <v>162</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>345</v>
+        <v>239</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B58" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="C58" t="s">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D58" t="s">
-        <v>236</v>
+        <v>163</v>
       </c>
       <c r="E58" t="s">
-        <v>294</v>
+        <v>187</v>
       </c>
       <c r="F58" t="s">
-        <v>236</v>
+        <v>163</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>367</v>
+        <v>240</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B59" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="C59" t="s">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="D59" t="s">
-        <v>237</v>
+        <v>164</v>
       </c>
       <c r="E59" t="s">
-        <v>287</v>
+        <v>188</v>
       </c>
       <c r="F59" t="s">
-        <v>237</v>
+        <v>164</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>368</v>
+        <v>233</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>32</v>
-      </c>
-      <c r="B60" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="C60" t="s">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c r="D60" t="s">
-        <v>238</v>
+        <v>149</v>
       </c>
       <c r="E60" t="s">
-        <v>301</v>
+        <v>185</v>
       </c>
       <c r="F60" t="s">
-        <v>238</v>
+        <v>193</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>369</v>
+        <v>227</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>32</v>
-      </c>
-      <c r="B61" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="C61" t="s">
-        <v>153</v>
+        <v>89</v>
       </c>
       <c r="D61" t="s">
-        <v>239</v>
+        <v>150</v>
       </c>
       <c r="E61" t="s">
-        <v>294</v>
+        <v>173</v>
       </c>
       <c r="F61" t="s">
-        <v>239</v>
+        <v>150</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>370</v>
+        <v>228</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>32</v>
-      </c>
-      <c r="B62" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="C62" t="s">
-        <v>154</v>
+        <v>58</v>
       </c>
       <c r="D62" t="s">
-        <v>240</v>
+        <v>119</v>
       </c>
       <c r="E62" t="s">
-        <v>280</v>
+        <v>173</v>
       </c>
       <c r="F62" t="s">
-        <v>240</v>
+        <v>119</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>371</v>
+        <v>204</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>32</v>
-      </c>
-      <c r="B63" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="C63" t="s">
-        <v>155</v>
+        <v>59</v>
       </c>
       <c r="D63" t="s">
-        <v>241</v>
+        <v>151</v>
       </c>
       <c r="E63" t="s">
-        <v>287</v>
+        <v>173</v>
       </c>
       <c r="F63" t="s">
-        <v>241</v>
+        <v>151</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>372</v>
+        <v>229</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>32</v>
-      </c>
-      <c r="B64" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="C64" t="s">
-        <v>156</v>
+        <v>60</v>
       </c>
       <c r="D64" t="s">
-        <v>242</v>
+        <v>152</v>
       </c>
       <c r="E64" t="s">
-        <v>287</v>
+        <v>173</v>
       </c>
       <c r="F64" t="s">
-        <v>242</v>
+        <v>152</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>373</v>
+        <v>230</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B65" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="C65" t="s">
-        <v>157</v>
+        <v>102</v>
       </c>
       <c r="D65" t="s">
-        <v>243</v>
+        <v>165</v>
       </c>
       <c r="E65" t="s">
-        <v>287</v>
+        <v>173</v>
       </c>
       <c r="F65" t="s">
-        <v>243</v>
+        <v>165</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>374</v>
+        <v>241</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B66" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="C66" t="s">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="D66" t="s">
-        <v>244</v>
+        <v>166</v>
       </c>
       <c r="E66" t="s">
-        <v>287</v>
+        <v>177</v>
       </c>
       <c r="F66" t="s">
-        <v>244</v>
+        <v>166</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>374</v>
+        <v>242</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B67" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="C67" t="s">
-        <v>159</v>
+        <v>104</v>
       </c>
       <c r="D67" t="s">
-        <v>245</v>
+        <v>167</v>
       </c>
       <c r="E67" t="s">
-        <v>299</v>
+        <v>173</v>
       </c>
       <c r="F67" t="s">
-        <v>245</v>
+        <v>167</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>375</v>
+        <v>243</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B68" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="C68" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="D68" t="s">
-        <v>246</v>
+        <v>168</v>
       </c>
       <c r="E68" t="s">
-        <v>287</v>
+        <v>173</v>
       </c>
       <c r="F68" t="s">
-        <v>246</v>
+        <v>168</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>368</v>
+        <v>244</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B69" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="C69" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="D69" t="s">
-        <v>247</v>
+        <v>167</v>
       </c>
       <c r="E69" t="s">
-        <v>287</v>
+        <v>173</v>
       </c>
       <c r="F69" t="s">
-        <v>247</v>
+        <v>167</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>368</v>
+        <v>243</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B70" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="C70" t="s">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="D70" t="s">
-        <v>248</v>
+        <v>169</v>
       </c>
       <c r="E70" t="s">
-        <v>302</v>
+        <v>189</v>
       </c>
       <c r="F70" t="s">
-        <v>248</v>
+        <v>169</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>376</v>
+        <v>245</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B71" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="C71" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D71" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="E71" t="s">
-        <v>303</v>
+        <v>177</v>
       </c>
       <c r="F71" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>345</v>
+        <v>246</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B72" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="C72" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D72" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="E72" t="s">
-        <v>304</v>
+        <v>177</v>
       </c>
       <c r="F72" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>345</v>
+        <v>247</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>38</v>
+        <v>31</v>
+      </c>
+      <c r="B73" t="s">
+        <v>49</v>
       </c>
       <c r="C73" t="s">
-        <v>163</v>
+        <v>110</v>
       </c>
       <c r="D73" t="s">
-        <v>249</v>
+        <v>172</v>
       </c>
       <c r="E73" t="s">
-        <v>305</v>
+        <v>177</v>
       </c>
       <c r="F73" t="s">
-        <v>329</v>
+        <v>195</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" t="s">
-        <v>38</v>
-      </c>
-      <c r="C74" t="s">
-        <v>164</v>
-      </c>
-      <c r="D74" t="s">
-        <v>250</v>
-      </c>
-      <c r="E74" t="s">
-        <v>280</v>
-      </c>
-      <c r="F74" t="s">
-        <v>250</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" t="s">
-        <v>38</v>
-      </c>
-      <c r="C75" t="s">
-        <v>114</v>
-      </c>
-      <c r="D75" t="s">
-        <v>200</v>
-      </c>
-      <c r="E75" t="s">
-        <v>280</v>
-      </c>
-      <c r="F75" t="s">
-        <v>200</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" t="s">
-        <v>38</v>
-      </c>
-      <c r="C76" t="s">
-        <v>115</v>
-      </c>
-      <c r="D76" t="s">
-        <v>251</v>
-      </c>
-      <c r="E76" t="s">
-        <v>280</v>
-      </c>
-      <c r="F76" t="s">
-        <v>251</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" t="s">
-        <v>38</v>
-      </c>
-      <c r="C77" t="s">
-        <v>116</v>
-      </c>
-      <c r="D77" t="s">
-        <v>252</v>
-      </c>
-      <c r="E77" t="s">
-        <v>280</v>
-      </c>
-      <c r="F77" t="s">
-        <v>252</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" t="s">
-        <v>39</v>
-      </c>
-      <c r="C78" t="s">
-        <v>165</v>
-      </c>
-      <c r="D78" t="s">
-        <v>253</v>
-      </c>
-      <c r="E78" t="s">
-        <v>306</v>
-      </c>
-      <c r="F78" t="s">
-        <v>253</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" t="s">
-        <v>39</v>
-      </c>
-      <c r="C79" t="s">
-        <v>166</v>
-      </c>
-      <c r="D79" t="s">
-        <v>254</v>
-      </c>
-      <c r="E79" t="s">
-        <v>306</v>
-      </c>
-      <c r="F79" t="s">
-        <v>254</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" t="s">
-        <v>40</v>
-      </c>
-      <c r="C80" t="s">
-        <v>167</v>
-      </c>
-      <c r="D80" t="s">
-        <v>255</v>
-      </c>
-      <c r="E80" t="s">
-        <v>306</v>
-      </c>
-      <c r="F80" t="s">
-        <v>330</v>
-      </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" t="s">
-        <v>41</v>
-      </c>
-      <c r="C81" t="s">
-        <v>117</v>
-      </c>
-      <c r="D81" t="s">
-        <v>203</v>
-      </c>
-      <c r="E81" t="s">
-        <v>307</v>
-      </c>
-      <c r="F81" t="s">
-        <v>203</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" t="s">
-        <v>42</v>
-      </c>
-      <c r="C82" t="s">
-        <v>168</v>
-      </c>
-      <c r="D82" t="s">
-        <v>256</v>
-      </c>
-      <c r="E82" t="s">
-        <v>308</v>
-      </c>
-      <c r="F82" t="s">
-        <v>256</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83" t="s">
-        <v>43</v>
-      </c>
-      <c r="B83" t="s">
-        <v>91</v>
-      </c>
-      <c r="C83" t="s">
-        <v>169</v>
-      </c>
-      <c r="D83" t="s">
-        <v>257</v>
-      </c>
-      <c r="E83" t="s">
-        <v>280</v>
-      </c>
-      <c r="F83" t="s">
-        <v>257</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" t="s">
-        <v>43</v>
-      </c>
-      <c r="B84" t="s">
-        <v>91</v>
-      </c>
-      <c r="C84" t="s">
-        <v>170</v>
-      </c>
-      <c r="D84" t="s">
-        <v>258</v>
-      </c>
-      <c r="E84" t="s">
-        <v>280</v>
-      </c>
-      <c r="F84" t="s">
-        <v>258</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" t="s">
-        <v>43</v>
-      </c>
-      <c r="B85" t="s">
-        <v>91</v>
-      </c>
-      <c r="C85" t="s">
-        <v>171</v>
-      </c>
-      <c r="D85" t="s">
-        <v>259</v>
-      </c>
-      <c r="E85" t="s">
-        <v>294</v>
-      </c>
-      <c r="F85" t="s">
-        <v>259</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" t="s">
-        <v>43</v>
-      </c>
-      <c r="B86" t="s">
-        <v>91</v>
-      </c>
-      <c r="C86" t="s">
-        <v>172</v>
-      </c>
-      <c r="D86" t="s">
-        <v>260</v>
-      </c>
-      <c r="E86" t="s">
-        <v>280</v>
-      </c>
-      <c r="F86" t="s">
-        <v>260</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" t="s">
-        <v>43</v>
-      </c>
-      <c r="B87" t="s">
-        <v>91</v>
-      </c>
-      <c r="C87" t="s">
-        <v>173</v>
-      </c>
-      <c r="D87" t="s">
-        <v>261</v>
-      </c>
-      <c r="E87" t="s">
-        <v>280</v>
-      </c>
-      <c r="F87" t="s">
-        <v>261</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88" t="s">
-        <v>43</v>
-      </c>
-      <c r="B88" t="s">
-        <v>91</v>
-      </c>
-      <c r="C88" t="s">
-        <v>174</v>
-      </c>
-      <c r="D88" t="s">
-        <v>262</v>
-      </c>
-      <c r="E88" t="s">
-        <v>280</v>
-      </c>
-      <c r="F88" t="s">
-        <v>262</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" t="s">
-        <v>43</v>
-      </c>
-      <c r="B89" t="s">
-        <v>91</v>
-      </c>
-      <c r="C89" t="s">
-        <v>175</v>
-      </c>
-      <c r="D89" t="s">
-        <v>263</v>
-      </c>
-      <c r="E89" t="s">
-        <v>280</v>
-      </c>
-      <c r="F89" t="s">
-        <v>263</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90" t="s">
-        <v>44</v>
-      </c>
-      <c r="B90" t="s">
-        <v>92</v>
-      </c>
-      <c r="C90" t="s">
-        <v>117</v>
-      </c>
-      <c r="D90" t="s">
-        <v>203</v>
-      </c>
-      <c r="E90" t="s">
-        <v>309</v>
-      </c>
-      <c r="F90" t="s">
-        <v>203</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="A91" t="s">
-        <v>45</v>
-      </c>
-      <c r="B91" t="s">
-        <v>93</v>
-      </c>
-      <c r="C91" t="s">
-        <v>117</v>
-      </c>
-      <c r="D91" t="s">
-        <v>203</v>
-      </c>
-      <c r="E91" t="s">
-        <v>310</v>
-      </c>
-      <c r="F91" t="s">
-        <v>203</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" t="s">
-        <v>46</v>
-      </c>
-      <c r="B92" t="s">
-        <v>94</v>
-      </c>
-      <c r="C92" t="s">
-        <v>176</v>
-      </c>
-      <c r="D92" t="s">
-        <v>264</v>
-      </c>
-      <c r="E92" t="s">
-        <v>280</v>
-      </c>
-      <c r="F92" t="s">
-        <v>331</v>
-      </c>
-      <c r="G92" t="b">
-        <v>1</v>
-      </c>
-      <c r="H92" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93" t="s">
-        <v>46</v>
-      </c>
-      <c r="B93" t="s">
-        <v>94</v>
-      </c>
-      <c r="C93" t="s">
-        <v>177</v>
-      </c>
-      <c r="D93" t="s">
-        <v>265</v>
-      </c>
-      <c r="E93" t="s">
-        <v>294</v>
-      </c>
-      <c r="F93" t="s">
-        <v>265</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="A94" t="s">
-        <v>47</v>
-      </c>
-      <c r="B94" t="s">
-        <v>95</v>
-      </c>
-      <c r="C94" t="s">
-        <v>117</v>
-      </c>
-      <c r="D94" t="s">
-        <v>203</v>
-      </c>
-      <c r="E94" t="s">
-        <v>311</v>
-      </c>
-      <c r="F94" t="s">
-        <v>203</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="A95" t="s">
-        <v>48</v>
-      </c>
-      <c r="C95" t="s">
-        <v>117</v>
-      </c>
-      <c r="D95" t="s">
-        <v>203</v>
-      </c>
-      <c r="E95" t="s">
-        <v>312</v>
-      </c>
-      <c r="F95" t="s">
-        <v>203</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="A96" t="s">
-        <v>49</v>
-      </c>
-      <c r="C96" t="s">
-        <v>117</v>
-      </c>
-      <c r="D96" t="s">
-        <v>203</v>
-      </c>
-      <c r="E96" t="s">
-        <v>313</v>
-      </c>
-      <c r="F96" t="s">
-        <v>203</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97" t="s">
-        <v>50</v>
-      </c>
-      <c r="C97" t="s">
-        <v>117</v>
-      </c>
-      <c r="D97" t="s">
-        <v>203</v>
-      </c>
-      <c r="E97" t="s">
-        <v>314</v>
-      </c>
-      <c r="F97" t="s">
-        <v>203</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
-      <c r="A98" t="s">
-        <v>51</v>
-      </c>
-      <c r="B98" t="s">
-        <v>96</v>
-      </c>
-      <c r="C98" t="s">
-        <v>178</v>
-      </c>
-      <c r="D98" t="s">
-        <v>266</v>
-      </c>
-      <c r="E98" t="s">
-        <v>315</v>
-      </c>
-      <c r="F98" t="s">
-        <v>266</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99" t="s">
-        <v>52</v>
-      </c>
-      <c r="B99" t="s">
-        <v>97</v>
-      </c>
-      <c r="C99" t="s">
-        <v>179</v>
-      </c>
-      <c r="D99" t="s">
-        <v>267</v>
-      </c>
-      <c r="E99" t="s">
-        <v>316</v>
-      </c>
-      <c r="F99" t="s">
-        <v>267</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="A100" t="s">
-        <v>53</v>
-      </c>
-      <c r="B100" t="s">
-        <v>98</v>
-      </c>
-      <c r="C100" t="s">
-        <v>117</v>
-      </c>
-      <c r="D100" t="s">
-        <v>203</v>
-      </c>
-      <c r="E100" t="s">
-        <v>317</v>
-      </c>
-      <c r="F100" t="s">
-        <v>203</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101" t="s">
-        <v>54</v>
-      </c>
-      <c r="C101" t="s">
-        <v>163</v>
-      </c>
-      <c r="D101" t="s">
-        <v>249</v>
-      </c>
-      <c r="E101" t="s">
-        <v>305</v>
-      </c>
-      <c r="F101" t="s">
-        <v>329</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" t="s">
-        <v>54</v>
-      </c>
-      <c r="C102" t="s">
-        <v>164</v>
-      </c>
-      <c r="D102" t="s">
-        <v>250</v>
-      </c>
-      <c r="E102" t="s">
-        <v>280</v>
-      </c>
-      <c r="F102" t="s">
-        <v>250</v>
-      </c>
-      <c r="G102" t="b">
-        <v>0</v>
-      </c>
-      <c r="H102" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="A103" t="s">
-        <v>54</v>
-      </c>
-      <c r="C103" t="s">
-        <v>114</v>
-      </c>
-      <c r="D103" t="s">
-        <v>200</v>
-      </c>
-      <c r="E103" t="s">
-        <v>280</v>
-      </c>
-      <c r="F103" t="s">
-        <v>200</v>
-      </c>
-      <c r="G103" t="b">
-        <v>0</v>
-      </c>
-      <c r="H103" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="A104" t="s">
-        <v>54</v>
-      </c>
-      <c r="C104" t="s">
-        <v>115</v>
-      </c>
-      <c r="D104" t="s">
-        <v>251</v>
-      </c>
-      <c r="E104" t="s">
-        <v>280</v>
-      </c>
-      <c r="F104" t="s">
-        <v>251</v>
-      </c>
-      <c r="G104" t="b">
-        <v>0</v>
-      </c>
-      <c r="H104" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="A105" t="s">
-        <v>54</v>
-      </c>
-      <c r="C105" t="s">
-        <v>116</v>
-      </c>
-      <c r="D105" t="s">
-        <v>252</v>
-      </c>
-      <c r="E105" t="s">
-        <v>280</v>
-      </c>
-      <c r="F105" t="s">
-        <v>252</v>
-      </c>
-      <c r="G105" t="b">
-        <v>0</v>
-      </c>
-      <c r="H105" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="A106" t="s">
-        <v>55</v>
-      </c>
-      <c r="B106" t="s">
-        <v>99</v>
-      </c>
-      <c r="C106" t="s">
-        <v>180</v>
-      </c>
-      <c r="D106" t="s">
-        <v>268</v>
-      </c>
-      <c r="E106" t="s">
-        <v>280</v>
-      </c>
-      <c r="F106" t="s">
-        <v>268</v>
-      </c>
-      <c r="G106" t="b">
-        <v>0</v>
-      </c>
-      <c r="H106" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="A107" t="s">
-        <v>55</v>
-      </c>
-      <c r="B107" t="s">
-        <v>99</v>
-      </c>
-      <c r="C107" t="s">
-        <v>181</v>
-      </c>
-      <c r="D107" t="s">
-        <v>269</v>
-      </c>
-      <c r="E107" t="s">
-        <v>285</v>
-      </c>
-      <c r="F107" t="s">
-        <v>269</v>
-      </c>
-      <c r="G107" t="b">
-        <v>0</v>
-      </c>
-      <c r="H107" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="A108" t="s">
-        <v>55</v>
-      </c>
-      <c r="B108" t="s">
-        <v>99</v>
-      </c>
-      <c r="C108" t="s">
-        <v>182</v>
-      </c>
-      <c r="D108" t="s">
-        <v>270</v>
-      </c>
-      <c r="E108" t="s">
-        <v>280</v>
-      </c>
-      <c r="F108" t="s">
-        <v>270</v>
-      </c>
-      <c r="G108" t="b">
-        <v>0</v>
-      </c>
-      <c r="H108" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="A109" t="s">
-        <v>55</v>
-      </c>
-      <c r="B109" t="s">
-        <v>99</v>
-      </c>
-      <c r="C109" t="s">
-        <v>183</v>
-      </c>
-      <c r="D109" t="s">
-        <v>271</v>
-      </c>
-      <c r="E109" t="s">
-        <v>280</v>
-      </c>
-      <c r="F109" t="s">
-        <v>271</v>
-      </c>
-      <c r="G109" t="b">
-        <v>0</v>
-      </c>
-      <c r="H109" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="A110" t="s">
-        <v>55</v>
-      </c>
-      <c r="B110" t="s">
-        <v>99</v>
-      </c>
-      <c r="C110" t="s">
-        <v>184</v>
-      </c>
-      <c r="D110" t="s">
-        <v>270</v>
-      </c>
-      <c r="E110" t="s">
-        <v>280</v>
-      </c>
-      <c r="F110" t="s">
-        <v>270</v>
-      </c>
-      <c r="G110" t="b">
-        <v>0</v>
-      </c>
-      <c r="H110" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="A111" t="s">
-        <v>56</v>
-      </c>
-      <c r="C111" t="s">
-        <v>117</v>
-      </c>
-      <c r="D111" t="s">
-        <v>203</v>
-      </c>
-      <c r="E111" t="s">
-        <v>318</v>
-      </c>
-      <c r="F111" t="s">
-        <v>203</v>
-      </c>
-      <c r="G111" t="b">
-        <v>0</v>
-      </c>
-      <c r="H111" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="A112" t="s">
-        <v>57</v>
-      </c>
-      <c r="B112" t="s">
-        <v>100</v>
-      </c>
-      <c r="C112" t="s">
-        <v>185</v>
-      </c>
-      <c r="D112" t="s">
-        <v>272</v>
-      </c>
-      <c r="E112" t="s">
-        <v>319</v>
-      </c>
-      <c r="F112" t="s">
-        <v>272</v>
-      </c>
-      <c r="G112" t="b">
-        <v>0</v>
-      </c>
-      <c r="H112" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
-      <c r="A113" t="s">
-        <v>57</v>
-      </c>
-      <c r="B113" t="s">
-        <v>100</v>
-      </c>
-      <c r="C113" t="s">
-        <v>186</v>
-      </c>
-      <c r="D113" t="s">
-        <v>273</v>
-      </c>
-      <c r="E113" t="s">
-        <v>285</v>
-      </c>
-      <c r="F113" t="s">
-        <v>273</v>
-      </c>
-      <c r="G113" t="b">
-        <v>0</v>
-      </c>
-      <c r="H113" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
-      <c r="A114" t="s">
-        <v>57</v>
-      </c>
-      <c r="B114" t="s">
-        <v>100</v>
-      </c>
-      <c r="C114" t="s">
-        <v>187</v>
-      </c>
-      <c r="D114" t="s">
-        <v>274</v>
-      </c>
-      <c r="E114" t="s">
-        <v>285</v>
-      </c>
-      <c r="F114" t="s">
-        <v>274</v>
-      </c>
-      <c r="G114" t="b">
-        <v>0</v>
-      </c>
-      <c r="H114" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
-      <c r="A115" t="s">
-        <v>57</v>
-      </c>
-      <c r="B115" t="s">
-        <v>100</v>
-      </c>
-      <c r="C115" t="s">
-        <v>188</v>
-      </c>
-      <c r="D115" t="s">
-        <v>275</v>
-      </c>
-      <c r="E115" t="s">
-        <v>285</v>
-      </c>
-      <c r="F115" t="s">
-        <v>275</v>
-      </c>
-      <c r="G115" t="b">
-        <v>0</v>
-      </c>
-      <c r="H115" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
-      <c r="A116" t="s">
-        <v>58</v>
-      </c>
-      <c r="B116" t="s">
-        <v>101</v>
-      </c>
-      <c r="C116" t="s">
-        <v>189</v>
-      </c>
-      <c r="D116" t="s">
-        <v>276</v>
-      </c>
-      <c r="E116" t="s">
-        <v>285</v>
-      </c>
-      <c r="F116" t="s">
-        <v>276</v>
-      </c>
-      <c r="G116" t="b">
-        <v>0</v>
-      </c>
-      <c r="H116" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
-      <c r="A117" t="s">
-        <v>59</v>
-      </c>
-      <c r="C117" t="s">
-        <v>165</v>
-      </c>
-      <c r="D117" t="s">
-        <v>253</v>
-      </c>
-      <c r="E117" t="s">
-        <v>306</v>
-      </c>
-      <c r="F117" t="s">
-        <v>253</v>
-      </c>
-      <c r="G117" t="b">
-        <v>0</v>
-      </c>
-      <c r="H117" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
-      <c r="A118" t="s">
-        <v>59</v>
-      </c>
-      <c r="C118" t="s">
-        <v>166</v>
-      </c>
-      <c r="D118" t="s">
-        <v>254</v>
-      </c>
-      <c r="E118" t="s">
-        <v>306</v>
-      </c>
-      <c r="F118" t="s">
-        <v>254</v>
-      </c>
-      <c r="G118" t="b">
-        <v>0</v>
-      </c>
-      <c r="H118" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
-      <c r="A119" t="s">
-        <v>60</v>
-      </c>
-      <c r="B119" t="s">
-        <v>102</v>
-      </c>
-      <c r="C119" t="s">
-        <v>117</v>
-      </c>
-      <c r="D119" t="s">
-        <v>203</v>
-      </c>
-      <c r="E119" t="s">
-        <v>320</v>
-      </c>
-      <c r="F119" t="s">
-        <v>203</v>
-      </c>
-      <c r="G119" t="b">
-        <v>0</v>
-      </c>
-      <c r="H119" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="A120" t="s">
-        <v>61</v>
-      </c>
-      <c r="C120" t="s">
-        <v>117</v>
-      </c>
-      <c r="D120" t="s">
-        <v>203</v>
-      </c>
-      <c r="E120" t="s">
-        <v>321</v>
-      </c>
-      <c r="F120" t="s">
-        <v>203</v>
-      </c>
-      <c r="G120" t="b">
-        <v>0</v>
-      </c>
-      <c r="H120" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
-      <c r="A121" t="s">
-        <v>62</v>
-      </c>
-      <c r="B121" t="s">
-        <v>103</v>
-      </c>
-      <c r="C121" t="s">
-        <v>167</v>
-      </c>
-      <c r="D121" t="s">
-        <v>255</v>
-      </c>
-      <c r="E121" t="s">
-        <v>306</v>
-      </c>
-      <c r="F121" t="s">
-        <v>330</v>
-      </c>
-      <c r="G121" t="b">
-        <v>1</v>
-      </c>
-      <c r="H121" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
-      <c r="A122" t="s">
-        <v>62</v>
-      </c>
-      <c r="B122" t="s">
-        <v>103</v>
-      </c>
-      <c r="C122" t="s">
-        <v>166</v>
-      </c>
-      <c r="D122" t="s">
-        <v>277</v>
-      </c>
-      <c r="E122" t="s">
-        <v>306</v>
-      </c>
-      <c r="F122" t="s">
-        <v>332</v>
-      </c>
-      <c r="G122" t="b">
-        <v>1</v>
-      </c>
-      <c r="H122" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
-      <c r="A123" t="s">
-        <v>63</v>
-      </c>
-      <c r="B123" t="s">
-        <v>104</v>
-      </c>
-      <c r="C123" t="s">
-        <v>190</v>
-      </c>
-      <c r="D123" t="s">
-        <v>278</v>
-      </c>
-      <c r="E123" t="s">
-        <v>285</v>
-      </c>
-      <c r="F123" t="s">
-        <v>278</v>
-      </c>
-      <c r="G123" t="b">
-        <v>0</v>
-      </c>
-      <c r="H123" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
-      <c r="A124" t="s">
-        <v>63</v>
-      </c>
-      <c r="B124" t="s">
-        <v>104</v>
-      </c>
-      <c r="C124" t="s">
-        <v>191</v>
-      </c>
-      <c r="D124" t="s">
-        <v>279</v>
-      </c>
-      <c r="E124" t="s">
-        <v>285</v>
-      </c>
-      <c r="F124" t="s">
-        <v>333</v>
-      </c>
-      <c r="G124" t="b">
-        <v>0</v>
-      </c>
-      <c r="H124" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="A125" t="s">
-        <v>64</v>
-      </c>
-      <c r="B125" t="s">
-        <v>105</v>
-      </c>
-      <c r="C125" t="s">
-        <v>117</v>
-      </c>
-      <c r="D125" t="s">
-        <v>203</v>
-      </c>
-      <c r="E125" t="s">
-        <v>322</v>
-      </c>
-      <c r="F125" t="s">
-        <v>203</v>
-      </c>
-      <c r="G125" t="b">
-        <v>0</v>
-      </c>
-      <c r="H125" t="s">
-        <v>345</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
